--- a/back/MultiPatentInfo/[NASICON]MultiPatentInfo.xlsx
+++ b/back/MultiPatentInfo/[NASICON]MultiPatentInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9875"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>titleE</t>
   </si>
@@ -80,30 +80,6 @@
   </si>
   <si>
     <t>232__</t>
-  </si>
-  <si>
-    <t>Sodium Mobility in the NASICON Series Na1+xZr2-xInx(PO4)3</t>
-  </si>
-  <si>
-    <t>ER Losilla</t>
-  </si>
-  <si>
-    <t>Rhombohedral Na1+xZr2-xInx(PO4)3 (x = 0, 0.2, 0.4, 0.8, 1.0, 1.2, 1.6, and 1.8) NASICON materials have been studied by XRPD, variable-temperature NPD, 31P and variable-temperature 23Na MAS NMR, and impedance spectroscopies. Relative 31P MAS NMR peak intensities of the five detected signals, attributed to the environments [P(OZr)4-n(OIn)n (n = 04)], are close to those expected for a random distribution of octahedral cations. This local probe allows us to rule out the existence of segregated metal-rich nanoregions. Combined NPD and XRPD Rietveld studies showed that the occupation of M2 sites by the extra Na+ cations produces a slight distortion of the structure. Low temperatures freeze Na mobilities and permit the assignment of the resulting NMR bands to Na+ in the M1 and M2 sites. The mobility of Na at room temperature increases with the Na content. For samples with x &lt; 0.8, Na ions are relatively localized; however, for x ≥ 0.8, Na mobility increases, yielding a unique signal in the 23Na NMR spectra.</t>
-  </si>
-  <si>
-    <t>anthracene elastic anomalies low temperature type I/type II phase transition</t>
-  </si>
-  <si>
-    <t>2000.4.27</t>
-  </si>
-  <si>
-    <t>Department of Engineering Materials</t>
-  </si>
-  <si>
-    <t>10.1021/cm000122q</t>
-  </si>
-  <si>
-    <t>2101__</t>
   </si>
 </sst>
 </file>
@@ -1042,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1130,47 +1106,6 @@
       </c>
       <c r="M2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3">
-        <v>2134</v>
-      </c>
-      <c r="L3">
-        <v>2142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
